--- a/upload/group3.xlsx
+++ b/upload/group3.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -468,13 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
   </sheetData>
   <autoFilter ref="A1:F8"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
